--- a/ALNY.xlsx
+++ b/ALNY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746002C1-E3E9-4885-AAF0-6C4185CADD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7468C4-1CB1-492F-8080-971408EA19E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="360" windowWidth="33330" windowHeight="20340" activeTab="1" xr2:uid="{7C34F31A-DE2D-4EBA-93CC-6997970EE8B3}"/>
+    <workbookView xWindow="-26700" yWindow="540" windowWidth="26490" windowHeight="19650" xr2:uid="{7C34F31A-DE2D-4EBA-93CC-6997970EE8B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,8 +40,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9954F7F1-0A1F-4757-9950-872FE97E78A2}</author>
+  </authors>
+  <commentList>
+    <comment ref="X7" authorId="0" shapeId="0" xr:uid="{9954F7F1-0A1F-4757-9950-872FE97E78A2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    207.429 from REGN</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="139">
   <si>
     <t>Price</t>
   </si>
@@ -440,13 +458,31 @@
   </si>
   <si>
     <t>Q423</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>ALN-KHK</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -473,6 +509,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -633,7 +675,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{2AB8053D-6CB4-4AB3-AA6A-F7920C6492E7}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -649,14 +693,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>29765</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>17859</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>29765</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>17859</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>148829</xdr:rowOff>
     </xdr:to>
@@ -673,7 +717,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10679906" y="0"/>
+          <a:off x="14918531" y="0"/>
           <a:ext cx="0" cy="7060407"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -700,10 +744,16 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{30219597-8191-4CF3-B2C9-27CAD859B14E}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -741,7 +791,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -847,7 +897,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -989,18 +1039,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="X7" dT="2024-09-02T19:25:42.23" personId="{30219597-8191-4CF3-B2C9-27CAD859B14E}" id="{9954F7F1-0A1F-4757-9950-872FE97E78A2}">
+    <text>207.429 from REGN</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2D40B6-A1FF-428A-9D75-C1B382F99280}">
-  <dimension ref="B2:M27"/>
+  <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>232.86</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -1061,10 +1119,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>122.991</v>
+        <v>128.38051300000001</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -1077,7 +1135,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>28639.684260000002</v>
+        <v>33635.694406000002</v>
       </c>
       <c r="M4" s="3"/>
     </row>
@@ -1102,11 +1160,11 @@
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>1073.228+1169.05+23.051+49.389</f>
-        <v>2314.7180000000003</v>
+        <f>968.492+1646.268+9.889+49.391</f>
+        <v>2674.0400000000004</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -1130,11 +1188,11 @@
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <f>1015.975+1231.873</f>
-        <v>2247.848</v>
+        <f>1022.688+1342.58+61.963</f>
+        <v>2427.2310000000002</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -1158,7 +1216,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>28572.814259999999</v>
+        <v>33388.885406000001</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1228,19 +1286,10 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="H14" s="5"/>
       <c r="J14" t="s">
@@ -1248,15 +1297,17 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="C15" t="s">
         <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
         <v>112</v>
@@ -1267,69 +1318,85 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G20" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G21" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G22" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G23" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G24" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G25" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G26" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G27" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1345,14 +1412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26819CA-CB58-43F1-B61F-985A61CFCF16}">
-  <dimension ref="A1:AL24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26819CA-CB58-43F1-B61F-985A61CFCF16}">
+  <dimension ref="A1:AP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1362,12 +1429,12 @@
     <col min="3" max="18" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
@@ -1428,59 +1495,71 @@
       <c r="V2" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="Z2">
+      <c r="W2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD2">
         <v>2015</v>
       </c>
-      <c r="AA2">
-        <f>+Z2+1</f>
+      <c r="AE2">
+        <f>+AD2+1</f>
         <v>2016</v>
       </c>
-      <c r="AB2">
-        <f t="shared" ref="AB2:AL2" si="0">+AA2+1</f>
+      <c r="AF2">
+        <f t="shared" ref="AF2:AP2" si="0">+AE2+1</f>
         <v>2017</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1521,24 +1600,30 @@
         <f>+Q3</f>
         <v>144.94999999999999</v>
       </c>
-      <c r="AG3" s="2">
-        <f t="shared" ref="AG3:AG8" si="1">SUM(O3:R3)</f>
+      <c r="T3" s="2">
+        <v>91.457999999999998</v>
+      </c>
+      <c r="X3" s="2">
+        <v>77.244</v>
+      </c>
+      <c r="AK3" s="2">
+        <f t="shared" ref="AK3:AK8" si="1">SUM(O3:R3)</f>
         <v>580.33699999999999</v>
       </c>
-      <c r="AH3" s="2">
-        <f>+AG3*0.8</f>
+      <c r="AL3" s="2">
+        <f>+AK3*0.8</f>
         <v>464.26960000000003</v>
       </c>
-      <c r="AI3" s="2">
-        <f>+AH3*0.8</f>
+      <c r="AM3" s="2">
+        <f>+AL3*0.8</f>
         <v>371.41568000000007</v>
       </c>
-      <c r="AJ3" s="2">
-        <f>+AI3*0.8</f>
+      <c r="AN3" s="2">
+        <f>+AM3*0.8</f>
         <v>297.13254400000005</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>96</v>
       </c>
@@ -1562,21 +1647,27 @@
       <c r="R4" s="16">
         <v>15</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="T4" s="2">
+        <v>132.136</v>
+      </c>
+      <c r="X4" s="2">
+        <v>230.10900000000001</v>
+      </c>
+      <c r="AK4" s="2">
         <f t="shared" si="1"/>
         <v>40.228999999999999</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AL4" s="2">
         <v>200</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AM4" s="2">
         <v>350</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AN4" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1617,24 +1708,30 @@
         <f>+Q5+4</f>
         <v>49.658999999999999</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="T5" s="2">
+        <v>57.899000000000001</v>
+      </c>
+      <c r="X5" s="2">
+        <v>62.127000000000002</v>
+      </c>
+      <c r="AK5" s="2">
         <f t="shared" si="1"/>
         <v>175.74499999999998</v>
       </c>
-      <c r="AH5" s="2">
-        <f t="shared" ref="AH5:AJ6" si="2">+AG5*1.15</f>
+      <c r="AL5" s="2">
+        <f t="shared" ref="AL5:AN6" si="2">+AK5*1.15</f>
         <v>202.10674999999995</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AM5" s="2">
         <f t="shared" si="2"/>
         <v>232.42276249999992</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AN5" s="2">
         <f t="shared" si="2"/>
         <v>267.28617687499991</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1675,24 +1772,30 @@
         <f>+Q6+3</f>
         <v>19.428999999999998</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="T6" s="2">
+        <v>24.212</v>
+      </c>
+      <c r="X6" s="2">
+        <v>40.607999999999997</v>
+      </c>
+      <c r="AK6" s="2">
         <f t="shared" si="1"/>
         <v>65.381</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AL6" s="2">
         <f t="shared" si="2"/>
         <v>75.188149999999993</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AM6" s="2">
         <f t="shared" si="2"/>
         <v>86.466372499999991</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AN6" s="2">
         <f t="shared" si="2"/>
         <v>99.436328374999988</v>
       </c>
     </row>
-    <row r="7" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1733,24 +1836,31 @@
         <f>+Q7-1</f>
         <v>28.297000000000001</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="T7" s="2">
+        <v>5.8440000000000003</v>
+      </c>
+      <c r="X7" s="2">
+        <f>227.338-207.429</f>
+        <v>19.908999999999992</v>
+      </c>
+      <c r="AK7" s="2">
         <f t="shared" si="1"/>
         <v>92.563999999999993</v>
       </c>
-      <c r="AH7" s="2">
-        <f>+AG7*0.5</f>
+      <c r="AL7" s="2">
+        <f>+AK7*0.5</f>
         <v>46.281999999999996</v>
       </c>
-      <c r="AI7" s="2">
-        <f>+AH7*0.5</f>
+      <c r="AM7" s="2">
+        <f>+AL7*0.5</f>
         <v>23.140999999999998</v>
       </c>
-      <c r="AJ7" s="2">
-        <f>+AI7*0.5</f>
+      <c r="AN7" s="2">
+        <f>+AM7*0.5</f>
         <v>11.570499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
@@ -1791,24 +1901,30 @@
         <f>+Q8</f>
         <v>2.742</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="T8" s="2">
+        <v>7.2050000000000001</v>
+      </c>
+      <c r="X8" s="2">
+        <v>22.399000000000001</v>
+      </c>
+      <c r="AK8" s="2">
         <f t="shared" si="1"/>
         <v>8.2040000000000006</v>
       </c>
-      <c r="AH8" s="2">
-        <f>+AG8*2</f>
+      <c r="AL8" s="2">
+        <f>+AK8*2</f>
         <v>16.408000000000001</v>
       </c>
-      <c r="AI8" s="2">
-        <f>+AH8*2</f>
+      <c r="AM8" s="2">
+        <f>+AL8*2</f>
         <v>32.816000000000003</v>
       </c>
-      <c r="AJ8" s="2">
-        <f>+AI8*2</f>
+      <c r="AN8" s="2">
+        <f>+AM8*2</f>
         <v>65.632000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
@@ -1858,24 +1974,44 @@
         <f t="shared" si="4"/>
         <v>260.077</v>
       </c>
-      <c r="AG9" s="17">
-        <f>SUM(AG3:AG8)</f>
+      <c r="T9" s="17">
+        <f>SUM(T3:T8)</f>
+        <v>318.75399999999996</v>
+      </c>
+      <c r="U9" s="17">
+        <f>SUM(U3:U8)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="17">
+        <f>SUM(V3:V8)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="17">
+        <f>SUM(W3:W8)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="17">
+        <f>SUM(X3:X8)</f>
+        <v>452.39600000000002</v>
+      </c>
+      <c r="AK9" s="17">
+        <f>SUM(AK3:AK8)</f>
         <v>962.45999999999992</v>
       </c>
-      <c r="AH9" s="17">
-        <f>SUM(AH3:AH8)</f>
+      <c r="AL9" s="17">
+        <f>SUM(AL3:AL8)</f>
         <v>1004.2545</v>
       </c>
-      <c r="AI9" s="17">
-        <f>SUM(AI3:AI8)</f>
+      <c r="AM9" s="17">
+        <f>SUM(AM3:AM8)</f>
         <v>1096.2618150000001</v>
       </c>
-      <c r="AJ9" s="17">
-        <f>SUM(AJ3:AJ8)</f>
+      <c r="AN9" s="17">
+        <f>SUM(AN3:AN8)</f>
         <v>1191.05754925</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1923,24 +2059,32 @@
         <f>+R9-R11</f>
         <v>44.213090000000022</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="T10" s="2">
+        <f>75.336+10.034</f>
+        <v>85.37</v>
+      </c>
+      <c r="X10" s="2">
+        <f>67.271+1.401</f>
+        <v>68.671999999999997</v>
+      </c>
+      <c r="AK10" s="2">
         <f>SUM(O10:R10)</f>
         <v>157.15509000000003</v>
       </c>
-      <c r="AH10" s="2">
-        <f>+AH9*0.17</f>
+      <c r="AL10" s="2">
+        <f>+AL9*0.17</f>
         <v>170.72326500000003</v>
       </c>
-      <c r="AI10" s="2">
-        <f>+AI9*0.17</f>
+      <c r="AM10" s="2">
+        <f>+AM9*0.17</f>
         <v>186.36450855000004</v>
       </c>
-      <c r="AJ10" s="2">
-        <f>+AJ9*0.17</f>
+      <c r="AN10" s="2">
+        <f>+AN9*0.17</f>
         <v>202.47978337250001</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
@@ -1990,24 +2134,32 @@
         <f>+R9*0.83</f>
         <v>215.86390999999998</v>
       </c>
-      <c r="AG11" s="2">
-        <f>+AG9-AG10</f>
+      <c r="T11" s="2">
+        <f>+T9-T10</f>
+        <v>233.38399999999996</v>
+      </c>
+      <c r="X11" s="2">
+        <f>+X9-X10</f>
+        <v>383.72400000000005</v>
+      </c>
+      <c r="AK11" s="2">
+        <f>+AK9-AK10</f>
         <v>805.30490999999984</v>
       </c>
-      <c r="AH11" s="2">
-        <f t="shared" ref="AH11:AJ11" si="6">+AH9-AH10</f>
+      <c r="AL11" s="2">
+        <f t="shared" ref="AL11:AN11" si="6">+AL9-AL10</f>
         <v>833.53123499999992</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AM11" s="2">
         <f t="shared" si="6"/>
         <v>909.89730645000009</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="AN11" s="2">
         <f t="shared" si="6"/>
         <v>988.57776587749993</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
@@ -2045,8 +2197,14 @@
         <v>245.37100000000001</v>
       </c>
       <c r="R12" s="16"/>
-    </row>
-    <row r="13" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T12" s="2">
+        <v>248.52600000000001</v>
+      </c>
+      <c r="X12" s="2">
+        <v>294.142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
@@ -2087,8 +2245,14 @@
         <f>+Q13</f>
         <v>235.85900000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T13" s="2">
+        <v>214.68899999999999</v>
+      </c>
+      <c r="X13" s="2">
+        <v>248.39699999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2138,32 +2302,56 @@
         <f t="shared" si="7"/>
         <v>235.85900000000001</v>
       </c>
-      <c r="AF14" s="16">
-        <f t="shared" ref="AF14:AK14" si="8">+AF12+AF13</f>
+      <c r="S14" s="16">
+        <f t="shared" ref="S14:X14" si="8">+S12+S13</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="16">
+      <c r="T14" s="16">
+        <f t="shared" si="8"/>
+        <v>463.21500000000003</v>
+      </c>
+      <c r="U14" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="16">
+      <c r="V14" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI14" s="16">
+      <c r="W14" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="X14" s="16">
+        <f t="shared" si="8"/>
+        <v>542.53899999999999</v>
+      </c>
       <c r="AJ14" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AJ14:AO14" si="9">+AJ12+AJ13</f>
         <v>0</v>
       </c>
       <c r="AK14" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL14" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2174,71 +2362,95 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16">
-        <f t="shared" ref="I15:R15" si="9">+I11-I14</f>
+        <f t="shared" ref="I15:R15" si="10">+I11-I14</f>
         <v>-225.19899999999998</v>
       </c>
       <c r="J15" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-194.22200000000001</v>
       </c>
       <c r="K15" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-186.25400000000002</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-146.15999999999997</v>
       </c>
       <c r="M15" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-181.67700000000002</v>
       </c>
       <c r="N15" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-194.56099999999998</v>
       </c>
       <c r="O15" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-146.73200000000003</v>
       </c>
       <c r="P15" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-191.68600000000001</v>
       </c>
       <c r="Q15" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-253.43100000000004</v>
       </c>
       <c r="R15" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-19.995090000000033</v>
       </c>
-      <c r="AF15" s="16">
-        <f t="shared" ref="AF15:AK15" si="10">+AF11-AF14</f>
+      <c r="S15" s="16">
+        <f t="shared" ref="S15:X15" si="11">+S11-S14</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="16">
-        <f t="shared" si="10"/>
+      <c r="T15" s="16">
+        <f t="shared" si="11"/>
+        <v>-229.83100000000007</v>
+      </c>
+      <c r="U15" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="16">
+        <f t="shared" si="11"/>
+        <v>-158.81499999999994</v>
+      </c>
+      <c r="AJ15" s="16">
+        <f t="shared" ref="AJ15:AO15" si="12">+AJ11-AJ14</f>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="16">
+        <f t="shared" si="12"/>
         <v>805.30490999999984</v>
       </c>
-      <c r="AH15" s="16">
-        <f t="shared" si="10"/>
+      <c r="AL15" s="16">
+        <f t="shared" si="12"/>
         <v>833.53123499999992</v>
       </c>
-      <c r="AI15" s="16">
-        <f t="shared" si="10"/>
+      <c r="AM15" s="16">
+        <f t="shared" si="12"/>
         <v>909.89730645000009</v>
       </c>
-      <c r="AJ15" s="16">
-        <f t="shared" si="10"/>
+      <c r="AN15" s="16">
+        <f t="shared" si="12"/>
         <v>988.57776587749993</v>
       </c>
-      <c r="AK15" s="16">
-        <f t="shared" si="10"/>
+      <c r="AO15" s="16">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2285,8 +2497,16 @@
         <v>-71.317000000000007</v>
       </c>
       <c r="R16" s="16"/>
-    </row>
-    <row r="17" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="2">
+        <f>-30.035+21.075-35.418</f>
+        <v>-44.378</v>
+      </c>
+      <c r="X16" s="2">
+        <f>-33.258+29.182-55.705</f>
+        <v>-59.781000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2297,47 +2517,71 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16">
-        <f t="shared" ref="I17:R17" si="11">+I15+I16</f>
+        <f t="shared" ref="I17:X17" si="13">+I15+I16</f>
         <v>-252.44899999999998</v>
       </c>
       <c r="J17" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-243.59900000000002</v>
       </c>
       <c r="K17" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-199.27500000000001</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-188.33099999999996</v>
       </c>
       <c r="M17" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-204.23600000000002</v>
       </c>
       <c r="N17" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-260.30200000000002</v>
       </c>
       <c r="O17" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-239.35600000000002</v>
       </c>
       <c r="P17" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-274.673</v>
       </c>
       <c r="Q17" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-324.74800000000005</v>
       </c>
       <c r="R17" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-19.995090000000033</v>
       </c>
-    </row>
-    <row r="18" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="16">
+        <f t="shared" si="13"/>
+        <v>-274.20900000000006</v>
+      </c>
+      <c r="U17" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="16">
+        <f t="shared" si="13"/>
+        <v>-218.59599999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
@@ -2375,8 +2619,14 @@
         <v>0</v>
       </c>
       <c r="R18" s="16"/>
-    </row>
-    <row r="19" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T18" s="2">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="X18" s="2">
+        <v>5.7220000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -2387,47 +2637,71 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16">
-        <f t="shared" ref="I19:R19" si="12">+I17-I18</f>
+        <f t="shared" ref="I19:S19" si="14">+I17-I18</f>
         <v>-253.28799999999998</v>
       </c>
       <c r="J19" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-243.54000000000002</v>
       </c>
       <c r="K19" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-200.291</v>
       </c>
       <c r="L19" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-187.10299999999995</v>
       </c>
       <c r="M19" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-204.51400000000001</v>
       </c>
       <c r="N19" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-258.46000000000004</v>
       </c>
       <c r="O19" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-240.34100000000004</v>
       </c>
       <c r="P19" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-277.40199999999999</v>
       </c>
       <c r="Q19" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-324.74800000000005</v>
       </c>
       <c r="R19" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-19.995090000000033</v>
       </c>
-    </row>
-    <row r="20" spans="2:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S19" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <f>+T17-T18</f>
+        <v>-276.02400000000006</v>
+      </c>
+      <c r="U19" s="2">
+        <f>+U17-U18</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <f>+V17-V18</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <f>+W17-W18</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="2">
+        <f>+X17-X18</f>
+        <v>-224.31799999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
@@ -2438,47 +2712,56 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15">
-        <f t="shared" ref="I20:R20" si="13">+I19/I21</f>
+        <f t="shared" ref="I20:T20" si="15">+I19/I21</f>
         <v>-2.1837808011311708</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.094535321740028</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.710719166381961</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.5886883130115812</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.7165711216122075</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.1579153899459813</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.9963037718139762</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.2945506881948119</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.6582518867770086</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.16367147978979449</v>
       </c>
-    </row>
-    <row r="21" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S20" s="15"/>
+      <c r="T20" s="15">
+        <f t="shared" si="15"/>
+        <v>-2.2142324260582873</v>
+      </c>
+      <c r="X20" s="15">
+        <f t="shared" ref="X20" si="16">+X19/X21</f>
+        <v>-1.7700046554567472</v>
+      </c>
+    </row>
+    <row r="21" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -2519,8 +2802,14 @@
         <f>+Q21</f>
         <v>122.166</v>
       </c>
-    </row>
-    <row r="23" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T21" s="2">
+        <v>124.65900000000001</v>
+      </c>
+      <c r="X21" s="2">
+        <v>126.733</v>
+      </c>
+    </row>
+    <row r="23" spans="2:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="17" t="s">
         <v>59</v>
       </c>
@@ -2535,15 +2824,15 @@
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20">
-        <f t="shared" ref="M23:O23" si="14">+M9/I9-1</f>
+        <f t="shared" ref="M23:O23" si="17">+M9/I9-1</f>
         <v>0.49089016551055575</v>
       </c>
       <c r="N23" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.58065443073574574</v>
       </c>
       <c r="O23" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.20101258123739907</v>
       </c>
       <c r="P23" s="20">
@@ -2551,27 +2840,51 @@
         <v>1.9337755550820068E-2</v>
       </c>
       <c r="Q23" s="20">
-        <f t="shared" ref="Q23:R23" si="15">+Q9/M9-1</f>
+        <f t="shared" ref="Q23:X23" si="18">+Q9/M9-1</f>
         <v>0.40863280979358652</v>
       </c>
       <c r="R23" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5.9643761966463593E-3</v>
       </c>
-      <c r="AH23" s="26">
-        <f>+AH9/AG9-1</f>
+      <c r="S23" s="20">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="T23" s="20">
+        <f t="shared" si="18"/>
+        <v>0.41783131243939509</v>
+      </c>
+      <c r="U23" s="20">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="V23" s="20">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="W23" s="20" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X23" s="20">
+        <f t="shared" si="18"/>
+        <v>0.4192637582587202</v>
+      </c>
+      <c r="AL23" s="26">
+        <f>+AL9/AK9-1</f>
         <v>4.3424661804126963E-2</v>
       </c>
-      <c r="AI23" s="26">
-        <f>+AI9/AH9-1</f>
+      <c r="AM23" s="26">
+        <f>+AM9/AL9-1</f>
         <v>9.161752822616176E-2</v>
       </c>
-      <c r="AJ23" s="26">
-        <f>+AJ9/AI9-1</f>
+      <c r="AN23" s="26">
+        <f>+AN9/AM9-1</f>
         <v>8.6471801674493198E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -2580,58 +2893,82 @@
         <v>0.8268058766974169</v>
       </c>
       <c r="J24" s="19">
-        <f t="shared" ref="J24:R24" si="16">+J11/J9</f>
+        <f t="shared" ref="J24:X24" si="19">+J11/J9</f>
         <v>0.85923380736356858</v>
       </c>
       <c r="K24" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.8250678620907157</v>
       </c>
       <c r="L24" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.82428259874043885</v>
       </c>
       <c r="M24" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.82592081350295521</v>
       </c>
       <c r="N24" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.85431759723054912</v>
       </c>
       <c r="O24" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.83294022761055797</v>
       </c>
       <c r="P24" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.81848428506614246</v>
       </c>
       <c r="Q24" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.86187600735511105</v>
       </c>
       <c r="R24" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.83</v>
       </c>
-      <c r="AG24" s="19">
-        <f t="shared" ref="AG24:AJ24" si="17">+AG11/AG9</f>
+      <c r="S24" s="19" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="19">
+        <f t="shared" si="19"/>
+        <v>0.73217590994936532</v>
+      </c>
+      <c r="U24" s="19" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" s="19" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" s="19" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X24" s="19">
+        <f t="shared" si="19"/>
+        <v>0.8482037860635373</v>
+      </c>
+      <c r="AK24" s="19">
+        <f t="shared" ref="AK24:AN24" si="20">+AK11/AK9</f>
         <v>0.83671519855370602</v>
       </c>
-      <c r="AH24" s="19">
-        <f t="shared" si="17"/>
+      <c r="AL24" s="19">
+        <f t="shared" si="20"/>
         <v>0.83</v>
       </c>
-      <c r="AI24" s="19">
-        <f t="shared" si="17"/>
+      <c r="AM24" s="19">
+        <f t="shared" si="20"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="AJ24" s="19">
-        <f t="shared" si="17"/>
+      <c r="AN24" s="19">
+        <f t="shared" si="20"/>
         <v>0.83</v>
       </c>
-      <c r="AK24" s="19"/>
+      <c r="AO24" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2640,6 +2977,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/ALNY.xlsx
+++ b/ALNY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7468C4-1CB1-492F-8080-971408EA19E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5828763D-1C7B-2645-9E44-7443BF44F08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26700" yWindow="540" windowWidth="26490" windowHeight="19650" xr2:uid="{7C34F31A-DE2D-4EBA-93CC-6997970EE8B3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" xr2:uid="{7C34F31A-DE2D-4EBA-93CC-6997970EE8B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -509,12 +509,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1058,18 +1052,18 @@
   <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
@@ -1095,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="23" t="s">
         <v>50</v>
       </c>
@@ -1125,7 +1119,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
@@ -1135,11 +1129,11 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>33635.694406000002</v>
+        <v>32351.889276000002</v>
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="23" t="s">
         <v>52</v>
       </c>
@@ -1167,7 +1161,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1195,7 +1189,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="25" t="s">
         <v>48</v>
       </c>
@@ -1216,10 +1210,10 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>33388.885406000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+        <v>32105.080276000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
@@ -1230,7 +1224,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>54</v>
       </c>
@@ -1239,7 +1233,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
@@ -1251,7 +1245,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
@@ -1260,7 +1254,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
@@ -1272,7 +1266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
@@ -1284,7 +1278,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>137</v>
       </c>
@@ -1296,7 +1290,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>107</v>
       </c>
@@ -1317,7 +1311,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>108</v>
@@ -1333,7 +1327,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
         <v>108</v>
@@ -1350,52 +1344,52 @@
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G28" t="s">
         <v>126</v>
       </c>
@@ -1419,22 +1413,22 @@
       <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
+      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="12"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
       <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
@@ -1559,7 +1553,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1603,8 +1597,14 @@
       <c r="T3" s="2">
         <v>91.457999999999998</v>
       </c>
+      <c r="U3" s="2">
+        <v>81.588999999999999</v>
+      </c>
       <c r="X3" s="2">
         <v>77.244</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>50.292999999999999</v>
       </c>
       <c r="AK3" s="2">
         <f t="shared" ref="AK3:AK8" si="1">SUM(O3:R3)</f>
@@ -1623,7 +1623,7 @@
         <v>297.13254400000005</v>
       </c>
     </row>
-    <row r="4" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>96</v>
       </c>
@@ -1650,8 +1650,14 @@
       <c r="T4" s="2">
         <v>132.136</v>
       </c>
+      <c r="U4" s="2">
+        <v>148.68</v>
+      </c>
       <c r="X4" s="2">
         <v>230.10900000000001</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>258.58999999999997</v>
       </c>
       <c r="AK4" s="2">
         <f t="shared" si="1"/>
@@ -1667,7 +1673,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1711,8 +1717,14 @@
       <c r="T5" s="2">
         <v>57.899000000000001</v>
       </c>
+      <c r="U5" s="2">
+        <v>54.148000000000003</v>
+      </c>
       <c r="X5" s="2">
         <v>62.127000000000002</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>71.043000000000006</v>
       </c>
       <c r="AK5" s="2">
         <f t="shared" si="1"/>
@@ -1731,7 +1743,7 @@
         <v>267.28617687499991</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1775,8 +1787,14 @@
       <c r="T6" s="2">
         <v>24.212</v>
       </c>
+      <c r="U6" s="2">
+        <v>28.736000000000001</v>
+      </c>
       <c r="X6" s="2">
         <v>40.607999999999997</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>40.22</v>
       </c>
       <c r="AK6" s="2">
         <f t="shared" si="1"/>
@@ -1795,7 +1813,7 @@
         <v>99.436328374999988</v>
       </c>
     </row>
-    <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1860,7 +1878,7 @@
         <v>11.570499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
@@ -1924,7 +1942,7 @@
         <v>65.632000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:42" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
@@ -1980,7 +1998,7 @@
       </c>
       <c r="U9" s="17">
         <f>SUM(U3:U8)</f>
-        <v>0</v>
+        <v>313.15300000000002</v>
       </c>
       <c r="V9" s="17">
         <f>SUM(V3:V8)</f>
@@ -1994,6 +2012,14 @@
         <f>SUM(X3:X8)</f>
         <v>452.39600000000002</v>
       </c>
+      <c r="Y9" s="17">
+        <f>SUM(Y3:Y8)</f>
+        <v>420.14599999999996</v>
+      </c>
+      <c r="Z9" s="17">
+        <f>SUM(Z3:Z8)</f>
+        <v>0</v>
+      </c>
       <c r="AK9" s="17">
         <f>SUM(AK3:AK8)</f>
         <v>962.45999999999992</v>
@@ -2011,7 +2037,7 @@
         <v>1191.05754925</v>
       </c>
     </row>
-    <row r="10" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
@@ -2084,7 +2110,7 @@
         <v>202.47978337250001</v>
       </c>
     </row>
-    <row r="11" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
@@ -2159,7 +2185,7 @@
         <v>988.57776587749993</v>
       </c>
     </row>
-    <row r="12" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
@@ -2204,7 +2230,7 @@
         <v>294.142</v>
       </c>
     </row>
-    <row r="13" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
@@ -2252,7 +2278,7 @@
         <v>248.39699999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2351,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2450,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2506,7 +2532,7 @@
         <v>-59.781000000000006</v>
       </c>
     </row>
-    <row r="17" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2581,7 +2607,7 @@
         <v>-218.59599999999995</v>
       </c>
     </row>
-    <row r="18" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
@@ -2626,7 +2652,7 @@
         <v>5.7220000000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -2701,7 +2727,7 @@
         <v>-224.31799999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:41" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,7 +2787,7 @@
         <v>-1.7700046554567472</v>
       </c>
     </row>
-    <row r="21" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -2809,7 +2835,7 @@
         <v>126.733</v>
       </c>
     </row>
-    <row r="23" spans="2:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:41" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="17" t="s">
         <v>59</v>
       </c>
@@ -2840,7 +2866,7 @@
         <v>1.9337755550820068E-2</v>
       </c>
       <c r="Q23" s="20">
-        <f t="shared" ref="Q23:X23" si="18">+Q9/M9-1</f>
+        <f t="shared" ref="Q23:Z23" si="18">+Q9/M9-1</f>
         <v>0.40863280979358652</v>
       </c>
       <c r="R23" s="20">
@@ -2857,7 +2883,7 @@
       </c>
       <c r="U23" s="20">
         <f t="shared" si="18"/>
-        <v>-1</v>
+        <v>0.1848123008936613</v>
       </c>
       <c r="V23" s="20">
         <f t="shared" si="18"/>
@@ -2871,6 +2897,14 @@
         <f t="shared" si="18"/>
         <v>0.4192637582587202</v>
       </c>
+      <c r="Y23" s="20">
+        <f t="shared" si="18"/>
+        <v>0.34166365961686429</v>
+      </c>
+      <c r="Z23" s="20" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AL23" s="26">
         <f>+AL9/AK9-1</f>
         <v>4.3424661804126963E-2</v>
@@ -2884,7 +2918,7 @@
         <v>8.6471801674493198E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -2893,7 +2927,7 @@
         <v>0.8268058766974169</v>
       </c>
       <c r="J24" s="19">
-        <f t="shared" ref="J24:X24" si="19">+J11/J9</f>
+        <f t="shared" ref="J24:Z24" si="19">+J11/J9</f>
         <v>0.85923380736356858</v>
       </c>
       <c r="K24" s="19">
@@ -2936,9 +2970,9 @@
         <f t="shared" si="19"/>
         <v>0.73217590994936532</v>
       </c>
-      <c r="U24" s="19" t="e">
+      <c r="U24" s="19">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V24" s="19" t="e">
         <f t="shared" si="19"/>
@@ -2951,6 +2985,14 @@
       <c r="X24" s="19">
         <f t="shared" si="19"/>
         <v>0.8482037860635373</v>
+      </c>
+      <c r="Y24" s="19">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="19" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AK24" s="19">
         <f t="shared" ref="AK24:AN24" si="20">+AK11/AK9</f>
@@ -2987,18 +3029,18 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>62</v>
       </c>
@@ -3006,7 +3048,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -3014,7 +3056,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -3022,7 +3064,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -3030,32 +3072,32 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C13" s="22" t="s">
         <v>118</v>
       </c>
@@ -3077,18 +3119,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>62</v>
       </c>
@@ -3096,7 +3138,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -3104,7 +3146,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -3112,7 +3154,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -3120,12 +3162,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="22" t="s">
         <v>101</v>
       </c>
@@ -3144,18 +3186,18 @@
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>62</v>
       </c>
@@ -3163,7 +3205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -3171,7 +3213,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -3179,37 +3221,37 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>127</v>
       </c>
@@ -3228,18 +3270,18 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>62</v>
       </c>
@@ -3247,7 +3289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -3255,7 +3297,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -3263,7 +3305,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -3271,7 +3313,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>69</v>
       </c>
@@ -3279,32 +3321,32 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="22" t="s">
         <v>73</v>
       </c>

--- a/ALNY.xlsx
+++ b/ALNY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5828763D-1C7B-2645-9E44-7443BF44F08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC5A9C7-2D89-4E13-B38F-5F9CDF9F18A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" xr2:uid="{7C34F31A-DE2D-4EBA-93CC-6997970EE8B3}"/>
+    <workbookView xWindow="36190" yWindow="2280" windowWidth="23410" windowHeight="16240" activeTab="1" xr2:uid="{7C34F31A-DE2D-4EBA-93CC-6997970EE8B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="143">
   <si>
     <t>Price</t>
   </si>
@@ -476,6 +476,18 @@
   </si>
   <si>
     <t>Type 2 Diabetes</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -687,14 +699,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>17859</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>21828</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>17859</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>21828</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>148829</xdr:rowOff>
     </xdr:to>
@@ -711,8 +723,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14918531" y="0"/>
-          <a:ext cx="0" cy="7060407"/>
+          <a:off x="16674703" y="0"/>
+          <a:ext cx="0" cy="7316392"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1051,19 +1063,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2D40B6-A1FF-428A-9D75-C1B382F99280}">
   <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
@@ -1089,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
         <v>50</v>
       </c>
@@ -1113,13 +1125,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>128.38051300000001</v>
+        <v>130.31100000000001</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
@@ -1129,11 +1141,11 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>32351.889276000002</v>
+        <v>40266.099000000002</v>
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
         <v>52</v>
       </c>
@@ -1154,14 +1166,14 @@
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>968.492+1646.268+9.889+49.391</f>
-        <v>2674.0400000000004</v>
+        <f>1019.654+1605.368+7.2</f>
+        <v>2632.2219999999998</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1182,14 +1194,13 @@
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <f>1022.688+1342.58+61.963</f>
-        <v>2427.2310000000002</v>
+        <v>1025.566</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="25" t="s">
         <v>48</v>
       </c>
@@ -1210,10 +1221,10 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>32105.080276000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+        <v>38659.442999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
@@ -1224,7 +1235,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>54</v>
       </c>
@@ -1233,7 +1244,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
@@ -1245,7 +1256,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
@@ -1254,7 +1265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>57</v>
       </c>
@@ -1266,7 +1277,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
@@ -1278,7 +1289,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>137</v>
       </c>
@@ -1290,7 +1301,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>107</v>
       </c>
@@ -1311,7 +1322,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" t="s">
         <v>108</v>
@@ -1327,7 +1338,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
         <v>108</v>
@@ -1344,52 +1355,52 @@
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
         <v>126</v>
       </c>
@@ -1407,28 +1418,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26819CA-CB58-43F1-B61F-985A61CFCF16}">
-  <dimension ref="A1:AP24"/>
+  <dimension ref="A1:AT24"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
+      <selection pane="bottomRight" activeCell="AA23" sqref="AA23:AD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9.1640625" style="12"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
@@ -1501,59 +1512,71 @@
       <c r="Z2" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AD2">
+      <c r="AA2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH2">
         <v>2015</v>
       </c>
-      <c r="AE2">
-        <f>+AD2+1</f>
+      <c r="AI2">
+        <f>+AH2+1</f>
         <v>2016</v>
       </c>
-      <c r="AF2">
-        <f t="shared" ref="AF2:AP2" si="0">+AE2+1</f>
+      <c r="AJ2">
+        <f t="shared" ref="AJ2:AT2" si="0">+AI2+1</f>
         <v>2017</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AM2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AN2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AO2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AP2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1594,36 +1617,60 @@
         <f>+Q3</f>
         <v>144.94999999999999</v>
       </c>
+      <c r="S3" s="2">
+        <v>102.49299999999999</v>
+      </c>
       <c r="T3" s="2">
         <v>91.457999999999998</v>
       </c>
       <c r="U3" s="2">
         <v>81.588999999999999</v>
       </c>
+      <c r="W3" s="2">
+        <v>69.216999999999999</v>
+      </c>
       <c r="X3" s="2">
         <v>77.244</v>
       </c>
       <c r="Y3" s="2">
         <v>50.292999999999999</v>
       </c>
-      <c r="AK3" s="2">
-        <f t="shared" ref="AK3:AK8" si="1">SUM(O3:R3)</f>
+      <c r="Z3" s="2">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="2">
+        <f>+AA3-1</f>
+        <v>48</v>
+      </c>
+      <c r="AC3" s="2">
+        <f>+AB3-1</f>
+        <v>47</v>
+      </c>
+      <c r="AD3" s="2">
+        <f>+AC3-1</f>
+        <v>46</v>
+      </c>
+      <c r="AO3" s="2">
+        <f t="shared" ref="AO3:AO8" si="1">SUM(O3:R3)</f>
         <v>580.33699999999999</v>
       </c>
-      <c r="AL3" s="2">
-        <f>+AK3*0.8</f>
+      <c r="AP3" s="2">
+        <f>+AO3*0.8</f>
         <v>464.26960000000003</v>
       </c>
-      <c r="AM3" s="2">
-        <f>+AL3*0.8</f>
+      <c r="AQ3" s="2">
+        <f>+AP3*0.8</f>
         <v>371.41568000000007</v>
       </c>
-      <c r="AN3" s="2">
-        <f>+AM3*0.8</f>
+      <c r="AR3" s="2">
+        <f>+AQ3*0.8</f>
         <v>297.13254400000005</v>
       </c>
     </row>
-    <row r="4" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>96</v>
       </c>
@@ -1647,33 +1694,57 @@
       <c r="R4" s="16">
         <v>15</v>
       </c>
+      <c r="S4" s="2">
+        <v>101.768</v>
+      </c>
       <c r="T4" s="2">
         <v>132.136</v>
       </c>
       <c r="U4" s="2">
         <v>148.68</v>
       </c>
+      <c r="W4" s="2">
+        <v>195.24100000000001</v>
+      </c>
       <c r="X4" s="2">
         <v>230.10900000000001</v>
       </c>
       <c r="Y4" s="2">
         <v>258.58999999999997</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="Z4" s="2">
+        <v>287</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>310</v>
+      </c>
+      <c r="AB4" s="2">
+        <f>+W4*1.5</f>
+        <v>292.86150000000004</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>+X4*1.5</f>
+        <v>345.1635</v>
+      </c>
+      <c r="AD4" s="2">
+        <f>+Y4*1.5</f>
+        <v>387.88499999999999</v>
+      </c>
+      <c r="AO4" s="2">
         <f t="shared" si="1"/>
         <v>40.228999999999999</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AP4" s="2">
         <v>200</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AQ4" s="2">
         <v>350</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AR4" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1714,36 +1785,60 @@
         <f>+Q5+4</f>
         <v>49.658999999999999</v>
       </c>
+      <c r="S5" s="2">
+        <v>47.905999999999999</v>
+      </c>
       <c r="T5" s="2">
         <v>57.899000000000001</v>
       </c>
       <c r="U5" s="2">
         <v>54.148000000000003</v>
       </c>
+      <c r="W5" s="2">
+        <v>58.055999999999997</v>
+      </c>
       <c r="X5" s="2">
         <v>62.127000000000002</v>
       </c>
       <c r="Y5" s="2">
         <v>71.043000000000006</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="Z5" s="2">
+        <v>65</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB5" s="2">
+        <f>+AA5-1</f>
+        <v>66</v>
+      </c>
+      <c r="AC5" s="2">
+        <f t="shared" ref="AC5:AD5" si="2">+AB5-1</f>
+        <v>65</v>
+      </c>
+      <c r="AD5" s="2">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="AO5" s="2">
         <f t="shared" si="1"/>
         <v>175.74499999999998</v>
       </c>
-      <c r="AL5" s="2">
-        <f t="shared" ref="AL5:AN6" si="2">+AK5*1.15</f>
+      <c r="AP5" s="2">
+        <f t="shared" ref="AP5:AR6" si="3">+AO5*1.15</f>
         <v>202.10674999999995</v>
       </c>
-      <c r="AM5" s="2">
-        <f t="shared" si="2"/>
+      <c r="AQ5" s="2">
+        <f t="shared" si="3"/>
         <v>232.42276249999992</v>
       </c>
-      <c r="AN5" s="2">
-        <f t="shared" si="2"/>
+      <c r="AR5" s="2">
+        <f t="shared" si="3"/>
         <v>267.28617687499991</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1784,36 +1879,60 @@
         <f>+Q6+3</f>
         <v>19.428999999999998</v>
       </c>
+      <c r="S6" s="2">
+        <v>24.161000000000001</v>
+      </c>
       <c r="T6" s="2">
         <v>24.212</v>
       </c>
       <c r="U6" s="2">
         <v>28.736000000000001</v>
       </c>
+      <c r="W6" s="2">
+        <v>42.649000000000001</v>
+      </c>
       <c r="X6" s="2">
         <v>40.607999999999997</v>
       </c>
       <c r="Y6" s="2">
         <v>40.22</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="Z6" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB6" s="2">
+        <f t="shared" ref="AB6:AD6" si="4">+AA6-1</f>
+        <v>41</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="AO6" s="2">
         <f t="shared" si="1"/>
         <v>65.381</v>
       </c>
-      <c r="AL6" s="2">
-        <f t="shared" si="2"/>
+      <c r="AP6" s="2">
+        <f t="shared" si="3"/>
         <v>75.188149999999993</v>
       </c>
-      <c r="AM6" s="2">
-        <f t="shared" si="2"/>
+      <c r="AQ6" s="2">
+        <f t="shared" si="3"/>
         <v>86.466372499999991</v>
       </c>
-      <c r="AN6" s="2">
-        <f t="shared" si="2"/>
+      <c r="AR6" s="2">
+        <f t="shared" si="3"/>
         <v>99.436328374999988</v>
       </c>
     </row>
-    <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1854,31 +1973,46 @@
         <f>+Q7-1</f>
         <v>28.297000000000001</v>
       </c>
+      <c r="S7" s="2">
+        <v>36.462000000000003</v>
+      </c>
       <c r="T7" s="2">
         <v>5.8440000000000003</v>
+      </c>
+      <c r="W7" s="2">
+        <v>118.548</v>
       </c>
       <c r="X7" s="2">
         <f>227.338-207.429</f>
         <v>19.908999999999992</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="Y7" s="2">
+        <v>57.387</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>106.94799999999999</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>99.185000000000002</v>
+      </c>
+      <c r="AO7" s="2">
         <f t="shared" si="1"/>
         <v>92.563999999999993</v>
       </c>
-      <c r="AL7" s="2">
-        <f>+AK7*0.5</f>
+      <c r="AP7" s="2">
+        <f>+AO7*0.5</f>
         <v>46.281999999999996</v>
       </c>
-      <c r="AM7" s="2">
-        <f>+AL7*0.5</f>
+      <c r="AQ7" s="2">
+        <f>+AP7*0.5</f>
         <v>23.140999999999998</v>
       </c>
-      <c r="AN7" s="2">
-        <f>+AM7*0.5</f>
+      <c r="AR7" s="2">
+        <f>+AQ7*0.5</f>
         <v>11.570499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
@@ -1919,30 +2053,57 @@
         <f>+Q8</f>
         <v>2.742</v>
       </c>
+      <c r="S8" s="2">
+        <v>6.5</v>
+      </c>
       <c r="T8" s="2">
         <v>7.2050000000000001</v>
       </c>
+      <c r="W8" s="2">
+        <v>10.622</v>
+      </c>
       <c r="X8" s="2">
         <v>22.399000000000001</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="Y8" s="2">
+        <v>23.385999999999999</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>35.387</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>26.466000000000001</v>
+      </c>
+      <c r="AB8" s="2">
+        <f>+AA8+1</f>
+        <v>27.466000000000001</v>
+      </c>
+      <c r="AC8" s="2">
+        <f>+AB8+1</f>
+        <v>28.466000000000001</v>
+      </c>
+      <c r="AD8" s="2">
+        <f>+AC8+1</f>
+        <v>29.466000000000001</v>
+      </c>
+      <c r="AO8" s="2">
         <f t="shared" si="1"/>
         <v>8.2040000000000006</v>
       </c>
-      <c r="AL8" s="2">
-        <f>+AK8*2</f>
+      <c r="AP8" s="2">
+        <f>+AO8*2</f>
         <v>16.408000000000001</v>
       </c>
-      <c r="AM8" s="2">
-        <f>+AL8*2</f>
+      <c r="AQ8" s="2">
+        <f>+AP8*2</f>
         <v>32.816000000000003</v>
       </c>
-      <c r="AN8" s="2">
-        <f>+AM8*2</f>
+      <c r="AR8" s="2">
+        <f>+AQ8*2</f>
         <v>65.632000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:42" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
@@ -1953,91 +2114,111 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18">
-        <f t="shared" ref="I9:P9" si="3">SUM(I3:I8)</f>
+        <f t="shared" ref="I9:P9" si="5">SUM(I3:I8)</f>
         <v>125.85300000000001</v>
       </c>
       <c r="J9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>163.56199999999998</v>
       </c>
       <c r="K9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>177.566</v>
       </c>
       <c r="L9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>220.553</v>
       </c>
       <c r="M9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>187.63299999999998</v>
       </c>
       <c r="N9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>258.53500000000003</v>
       </c>
       <c r="O9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>213.25900000000001</v>
       </c>
       <c r="P9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>224.81800000000001</v>
       </c>
       <c r="Q9" s="18">
-        <f t="shared" ref="Q9:R9" si="4">SUM(Q3:Q8)</f>
+        <f t="shared" ref="Q9:R9" si="6">SUM(Q3:Q8)</f>
         <v>264.30599999999998</v>
       </c>
       <c r="R9" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>260.077</v>
       </c>
+      <c r="S9" s="17">
+        <f t="shared" ref="S9:AA9" si="7">SUM(S3:S8)</f>
+        <v>319.28999999999996</v>
+      </c>
       <c r="T9" s="17">
-        <f>SUM(T3:T8)</f>
+        <f t="shared" si="7"/>
         <v>318.75399999999996</v>
       </c>
       <c r="U9" s="17">
-        <f>SUM(U3:U8)</f>
+        <f t="shared" si="7"/>
         <v>313.15300000000002</v>
       </c>
       <c r="V9" s="17">
-        <f>SUM(V3:V8)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W9" s="17">
-        <f>SUM(W3:W8)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>494.33300000000003</v>
       </c>
       <c r="X9" s="17">
-        <f>SUM(X3:X8)</f>
+        <f t="shared" si="7"/>
         <v>452.39600000000002</v>
       </c>
       <c r="Y9" s="17">
-        <f>SUM(Y3:Y8)</f>
-        <v>420.14599999999996</v>
+        <f t="shared" si="7"/>
+        <v>500.91899999999998</v>
       </c>
       <c r="Z9" s="17">
-        <f>SUM(Z3:Z8)</f>
-        <v>0</v>
-      </c>
-      <c r="AK9" s="17">
-        <f>SUM(AK3:AK8)</f>
+        <f t="shared" si="7"/>
+        <v>594.33500000000004</v>
+      </c>
+      <c r="AA9" s="17">
+        <f t="shared" si="7"/>
+        <v>593.65099999999995</v>
+      </c>
+      <c r="AB9" s="17">
+        <f t="shared" ref="AB9" si="8">SUM(AB3:AB8)</f>
+        <v>475.32750000000004</v>
+      </c>
+      <c r="AC9" s="17">
+        <f t="shared" ref="AC9" si="9">SUM(AC3:AC8)</f>
+        <v>525.62950000000001</v>
+      </c>
+      <c r="AD9" s="17">
+        <f t="shared" ref="AD9" si="10">SUM(AD3:AD8)</f>
+        <v>566.351</v>
+      </c>
+      <c r="AO9" s="17">
+        <f>SUM(AO3:AO8)</f>
         <v>962.45999999999992</v>
       </c>
-      <c r="AL9" s="17">
-        <f>SUM(AL3:AL8)</f>
+      <c r="AP9" s="17">
+        <f>SUM(AP3:AP8)</f>
         <v>1004.2545</v>
       </c>
-      <c r="AM9" s="17">
-        <f>SUM(AM3:AM8)</f>
+      <c r="AQ9" s="17">
+        <f>SUM(AQ3:AQ8)</f>
         <v>1096.2618150000001</v>
       </c>
-      <c r="AN9" s="17">
-        <f>SUM(AN3:AN8)</f>
+      <c r="AR9" s="17">
+        <f>SUM(AR3:AR8)</f>
         <v>1191.05754925</v>
       </c>
     </row>
-    <row r="10" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
@@ -2085,32 +2266,63 @@
         <f>+R9-R11</f>
         <v>44.213090000000022</v>
       </c>
+      <c r="S10" s="2">
+        <f>41.432+13.437</f>
+        <v>54.869</v>
+      </c>
       <c r="T10" s="2">
         <f>75.336+10.034</f>
         <v>85.37</v>
       </c>
+      <c r="W10" s="2">
+        <f>54.613+11.363</f>
+        <v>65.975999999999999</v>
+      </c>
       <c r="X10" s="2">
         <f>67.271+1.401</f>
         <v>68.671999999999997</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="Y10" s="2">
+        <f>81.98+3.925</f>
+        <v>85.905000000000001</v>
+      </c>
+      <c r="Z10" s="2">
+        <f>102.649+0.168</f>
+        <v>102.81700000000001</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>70.183000000000007</v>
+      </c>
+      <c r="AB10" s="2">
+        <f>+AB9*0.15</f>
+        <v>71.299125000000004</v>
+      </c>
+      <c r="AC10" s="2">
+        <f>+AC9*0.15</f>
+        <v>78.844425000000001</v>
+      </c>
+      <c r="AD10" s="2">
+        <f>+AD9*0.15</f>
+        <v>84.952649999999991</v>
+      </c>
+      <c r="AO10" s="2">
         <f>SUM(O10:R10)</f>
         <v>157.15509000000003</v>
       </c>
-      <c r="AL10" s="2">
-        <f>+AL9*0.17</f>
+      <c r="AP10" s="2">
+        <f>+AP9*0.17</f>
         <v>170.72326500000003</v>
       </c>
-      <c r="AM10" s="2">
-        <f>+AM9*0.17</f>
+      <c r="AQ10" s="2">
+        <f>+AQ9*0.17</f>
         <v>186.36450855000004</v>
       </c>
-      <c r="AN10" s="2">
-        <f>+AN9*0.17</f>
+      <c r="AR10" s="2">
+        <f>+AR9*0.17</f>
         <v>202.47978337250001</v>
       </c>
     </row>
-    <row r="11" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
@@ -2121,35 +2333,35 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16">
-        <f t="shared" ref="I11:P11" si="5">+I9-I10</f>
+        <f t="shared" ref="I11:P11" si="11">+I9-I10</f>
         <v>104.05600000000001</v>
       </c>
       <c r="J11" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>140.53799999999998</v>
       </c>
       <c r="K11" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>146.50400000000002</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>181.798</v>
       </c>
       <c r="M11" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>154.96999999999997</v>
       </c>
       <c r="N11" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>220.87100000000004</v>
       </c>
       <c r="O11" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>177.63200000000001</v>
       </c>
       <c r="P11" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>184.01000000000002</v>
       </c>
       <c r="Q11" s="16">
@@ -2160,32 +2372,72 @@
         <f>+R9*0.83</f>
         <v>215.86390999999998</v>
       </c>
+      <c r="S11" s="2">
+        <f t="shared" ref="S11:AA11" si="12">+S9-S10</f>
+        <v>264.42099999999994</v>
+      </c>
       <c r="T11" s="2">
-        <f>+T9-T10</f>
+        <f t="shared" si="12"/>
         <v>233.38399999999996</v>
       </c>
+      <c r="U11" s="2">
+        <f t="shared" si="12"/>
+        <v>313.15300000000002</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="12"/>
+        <v>428.35700000000003</v>
+      </c>
       <c r="X11" s="2">
-        <f>+X9-X10</f>
+        <f t="shared" si="12"/>
         <v>383.72400000000005</v>
       </c>
-      <c r="AK11" s="2">
-        <f>+AK9-AK10</f>
+      <c r="Y11" s="2">
+        <f t="shared" si="12"/>
+        <v>415.01400000000001</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="12"/>
+        <v>491.51800000000003</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="12"/>
+        <v>523.46799999999996</v>
+      </c>
+      <c r="AB11" s="2">
+        <f>+AB9-AB10</f>
+        <v>404.02837500000004</v>
+      </c>
+      <c r="AC11" s="2">
+        <f>+AC9-AC10</f>
+        <v>446.78507500000001</v>
+      </c>
+      <c r="AD11" s="2">
+        <f>+AD9-AD10</f>
+        <v>481.39834999999999</v>
+      </c>
+      <c r="AO11" s="2">
+        <f>+AO9-AO10</f>
         <v>805.30490999999984</v>
       </c>
-      <c r="AL11" s="2">
-        <f t="shared" ref="AL11:AN11" si="6">+AL9-AL10</f>
+      <c r="AP11" s="2">
+        <f t="shared" ref="AP11:AR11" si="13">+AP9-AP10</f>
         <v>833.53123499999992</v>
       </c>
-      <c r="AM11" s="2">
-        <f t="shared" si="6"/>
+      <c r="AQ11" s="2">
+        <f t="shared" si="13"/>
         <v>909.89730645000009</v>
       </c>
-      <c r="AN11" s="2">
-        <f t="shared" si="6"/>
+      <c r="AR11" s="2">
+        <f t="shared" si="13"/>
         <v>988.57776587749993</v>
       </c>
     </row>
-    <row r="12" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
@@ -2226,11 +2478,35 @@
       <c r="T12" s="2">
         <v>248.52600000000001</v>
       </c>
+      <c r="W12" s="2">
+        <v>260.995</v>
+      </c>
       <c r="X12" s="2">
         <v>294.142</v>
       </c>
-    </row>
-    <row r="13" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y12" s="2">
+        <v>270.92599999999999</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>300.16899999999998</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>265.12200000000001</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" ref="AB12:AB13" si="14">+X12</f>
+        <v>294.142</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" ref="AC12:AC13" si="15">+Y12</f>
+        <v>270.92599999999999</v>
+      </c>
+      <c r="AD12" s="2">
+        <f t="shared" ref="AD12:AD13" si="16">+Z12</f>
+        <v>300.16899999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
@@ -2271,14 +2547,41 @@
         <f>+Q13</f>
         <v>235.85900000000001</v>
       </c>
+      <c r="S13" s="2">
+        <v>183.65899999999999</v>
+      </c>
       <c r="T13" s="2">
         <v>214.68899999999999</v>
       </c>
+      <c r="W13" s="2">
+        <v>210.797</v>
+      </c>
       <c r="X13" s="2">
         <v>248.39699999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y13" s="2">
+        <v>220.99299999999999</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>295.339</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>239.94900000000001</v>
+      </c>
+      <c r="AB13" s="2">
+        <f>+X13</f>
+        <v>248.39699999999999</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="15"/>
+        <v>220.99299999999999</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" si="16"/>
+        <v>295.339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2289,95 +2592,119 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16">
-        <f t="shared" ref="I14:R14" si="7">+I12+I13</f>
+        <f t="shared" ref="I14:R14" si="17">+I12+I13</f>
         <v>329.255</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>334.76</v>
       </c>
       <c r="K14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>332.75800000000004</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>327.95799999999997</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>336.64699999999999</v>
       </c>
       <c r="N14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>415.43200000000002</v>
       </c>
       <c r="O14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>324.36400000000003</v>
       </c>
       <c r="P14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>375.69600000000003</v>
       </c>
       <c r="Q14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>481.23</v>
       </c>
       <c r="R14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>235.85900000000001</v>
       </c>
       <c r="S14" s="16">
-        <f t="shared" ref="S14:X14" si="8">+S12+S13</f>
+        <f t="shared" ref="S14:X14" si="18">+S12+S13</f>
+        <v>183.65899999999999</v>
+      </c>
+      <c r="T14" s="16">
+        <f t="shared" si="18"/>
+        <v>463.21500000000003</v>
+      </c>
+      <c r="U14" s="16">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T14" s="16">
-        <f t="shared" si="8"/>
-        <v>463.21500000000003</v>
-      </c>
-      <c r="U14" s="16">
-        <f t="shared" si="8"/>
+      <c r="V14" s="16">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V14" s="16">
-        <f t="shared" si="8"/>
+      <c r="W14" s="16">
+        <f t="shared" si="18"/>
+        <v>471.79200000000003</v>
+      </c>
+      <c r="X14" s="16">
+        <f t="shared" si="18"/>
+        <v>542.53899999999999</v>
+      </c>
+      <c r="Y14" s="16">
+        <f t="shared" ref="Y14:AA14" si="19">+Y12+Y13</f>
+        <v>491.91899999999998</v>
+      </c>
+      <c r="Z14" s="16">
+        <f t="shared" si="19"/>
+        <v>595.50800000000004</v>
+      </c>
+      <c r="AA14" s="16">
+        <f t="shared" si="19"/>
+        <v>505.07100000000003</v>
+      </c>
+      <c r="AB14" s="16">
+        <f t="shared" ref="AB14:AD14" si="20">+AB12+AB13</f>
+        <v>542.53899999999999</v>
+      </c>
+      <c r="AC14" s="16">
+        <f t="shared" si="20"/>
+        <v>491.91899999999998</v>
+      </c>
+      <c r="AD14" s="16">
+        <f t="shared" si="20"/>
+        <v>595.50800000000004</v>
+      </c>
+      <c r="AN14" s="16">
+        <f t="shared" ref="AN14:AS14" si="21">+AN12+AN13</f>
         <v>0</v>
       </c>
-      <c r="W14" s="16">
-        <f t="shared" si="8"/>
+      <c r="AO14" s="16">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="X14" s="16">
-        <f t="shared" si="8"/>
-        <v>542.53899999999999</v>
-      </c>
-      <c r="AJ14" s="16">
-        <f t="shared" ref="AJ14:AO14" si="9">+AJ12+AJ13</f>
+      <c r="AP14" s="16">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="16">
-        <f t="shared" si="9"/>
+      <c r="AQ14" s="16">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AL14" s="16">
-        <f t="shared" si="9"/>
+      <c r="AR14" s="16">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AM14" s="16">
-        <f t="shared" si="9"/>
+      <c r="AS14" s="16">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2388,95 +2715,119 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16">
-        <f t="shared" ref="I15:R15" si="10">+I11-I14</f>
+        <f t="shared" ref="I15:R15" si="22">+I11-I14</f>
         <v>-225.19899999999998</v>
       </c>
       <c r="J15" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-194.22200000000001</v>
       </c>
       <c r="K15" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-186.25400000000002</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-146.15999999999997</v>
       </c>
       <c r="M15" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-181.67700000000002</v>
       </c>
       <c r="N15" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-194.56099999999998</v>
       </c>
       <c r="O15" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-146.73200000000003</v>
       </c>
       <c r="P15" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-191.68600000000001</v>
       </c>
       <c r="Q15" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-253.43100000000004</v>
       </c>
       <c r="R15" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-19.995090000000033</v>
       </c>
       <c r="S15" s="16">
-        <f t="shared" ref="S15:X15" si="11">+S11-S14</f>
+        <f t="shared" ref="S15:X15" si="23">+S11-S14</f>
+        <v>80.761999999999944</v>
+      </c>
+      <c r="T15" s="16">
+        <f t="shared" si="23"/>
+        <v>-229.83100000000007</v>
+      </c>
+      <c r="U15" s="16">
+        <f t="shared" si="23"/>
+        <v>313.15300000000002</v>
+      </c>
+      <c r="V15" s="16">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="T15" s="16">
-        <f t="shared" si="11"/>
-        <v>-229.83100000000007</v>
-      </c>
-      <c r="U15" s="16">
-        <f t="shared" si="11"/>
+      <c r="W15" s="16">
+        <f t="shared" si="23"/>
+        <v>-43.435000000000002</v>
+      </c>
+      <c r="X15" s="16">
+        <f t="shared" si="23"/>
+        <v>-158.81499999999994</v>
+      </c>
+      <c r="Y15" s="16">
+        <f t="shared" ref="Y15:AA15" si="24">+Y11-Y14</f>
+        <v>-76.904999999999973</v>
+      </c>
+      <c r="Z15" s="16">
+        <f t="shared" si="24"/>
+        <v>-103.99000000000001</v>
+      </c>
+      <c r="AA15" s="16">
+        <f t="shared" si="24"/>
+        <v>18.396999999999935</v>
+      </c>
+      <c r="AB15" s="16">
+        <f t="shared" ref="AB15:AD15" si="25">+AB11-AB14</f>
+        <v>-138.51062499999995</v>
+      </c>
+      <c r="AC15" s="16">
+        <f t="shared" si="25"/>
+        <v>-45.133924999999977</v>
+      </c>
+      <c r="AD15" s="16">
+        <f t="shared" si="25"/>
+        <v>-114.10965000000004</v>
+      </c>
+      <c r="AN15" s="16">
+        <f t="shared" ref="AN15:AS15" si="26">+AN11-AN14</f>
         <v>0</v>
       </c>
-      <c r="V15" s="16">
-        <f t="shared" si="11"/>
+      <c r="AO15" s="16">
+        <f t="shared" si="26"/>
+        <v>805.30490999999984</v>
+      </c>
+      <c r="AP15" s="16">
+        <f t="shared" si="26"/>
+        <v>833.53123499999992</v>
+      </c>
+      <c r="AQ15" s="16">
+        <f t="shared" si="26"/>
+        <v>909.89730645000009</v>
+      </c>
+      <c r="AR15" s="16">
+        <f t="shared" si="26"/>
+        <v>988.57776587749993</v>
+      </c>
+      <c r="AS15" s="16">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="W15" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="16">
-        <f t="shared" si="11"/>
-        <v>-158.81499999999994</v>
-      </c>
-      <c r="AJ15" s="16">
-        <f t="shared" ref="AJ15:AO15" si="12">+AJ11-AJ14</f>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="16">
-        <f t="shared" si="12"/>
-        <v>805.30490999999984</v>
-      </c>
-      <c r="AL15" s="16">
-        <f t="shared" si="12"/>
-        <v>833.53123499999992</v>
-      </c>
-      <c r="AM15" s="16">
-        <f t="shared" si="12"/>
-        <v>909.89730645000009</v>
-      </c>
-      <c r="AN15" s="16">
-        <f t="shared" si="12"/>
-        <v>988.57776587749993</v>
-      </c>
-      <c r="AO15" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2531,8 +2882,29 @@
         <f>-33.258+29.182-55.705</f>
         <v>-59.781000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y16" s="2">
+        <f>-34.376+32.146</f>
+        <v>-2.2299999999999969</v>
+      </c>
+      <c r="Z16" s="2">
+        <f>-38.971+31.019</f>
+        <v>-7.9519999999999982</v>
+      </c>
+      <c r="AA16" s="2">
+        <f>-38.646+28.673-49.7</f>
+        <v>-59.673000000000002</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2543,71 +2915,95 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16">
-        <f t="shared" ref="I17:X17" si="13">+I15+I16</f>
+        <f t="shared" ref="I17:AD17" si="27">+I15+I16</f>
         <v>-252.44899999999998</v>
       </c>
       <c r="J17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-243.59900000000002</v>
       </c>
       <c r="K17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-199.27500000000001</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-188.33099999999996</v>
       </c>
       <c r="M17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-204.23600000000002</v>
       </c>
       <c r="N17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-260.30200000000002</v>
       </c>
       <c r="O17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-239.35600000000002</v>
       </c>
       <c r="P17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-274.673</v>
       </c>
       <c r="Q17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-324.74800000000005</v>
       </c>
       <c r="R17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-19.995090000000033</v>
       </c>
       <c r="S17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
+        <v>80.761999999999944</v>
+      </c>
+      <c r="T17" s="16">
+        <f t="shared" si="27"/>
+        <v>-274.20900000000006</v>
+      </c>
+      <c r="U17" s="16">
+        <f t="shared" si="27"/>
+        <v>313.15300000000002</v>
+      </c>
+      <c r="V17" s="16">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="T17" s="16">
-        <f t="shared" si="13"/>
-        <v>-274.20900000000006</v>
-      </c>
-      <c r="U17" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="W17" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>-43.435000000000002</v>
       </c>
       <c r="X17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>-218.59599999999995</v>
       </c>
-    </row>
-    <row r="18" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y17" s="16">
+        <f t="shared" si="27"/>
+        <v>-79.134999999999962</v>
+      </c>
+      <c r="Z17" s="16">
+        <f t="shared" si="27"/>
+        <v>-111.94200000000001</v>
+      </c>
+      <c r="AA17" s="16">
+        <f t="shared" si="27"/>
+        <v>-41.276000000000067</v>
+      </c>
+      <c r="AB17" s="16">
+        <f t="shared" si="27"/>
+        <v>-138.51062499999995</v>
+      </c>
+      <c r="AC17" s="16">
+        <f t="shared" si="27"/>
+        <v>-45.133924999999977</v>
+      </c>
+      <c r="AD17" s="16">
+        <f t="shared" si="27"/>
+        <v>-114.10965000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
@@ -2651,8 +3047,29 @@
       <c r="X18" s="2">
         <v>5.7220000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2">
+        <f>+AB17*0.15</f>
+        <v>-20.776593749999993</v>
+      </c>
+      <c r="AC18" s="2">
+        <f>+AC17*0.15</f>
+        <v>-6.7700887499999967</v>
+      </c>
+      <c r="AD18" s="2">
+        <f>+AD17*0.15</f>
+        <v>-17.116447500000007</v>
+      </c>
+    </row>
+    <row r="19" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -2663,48 +3080,48 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16">
-        <f t="shared" ref="I19:S19" si="14">+I17-I18</f>
+        <f t="shared" ref="I19:S19" si="28">+I17-I18</f>
         <v>-253.28799999999998</v>
       </c>
       <c r="J19" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-243.54000000000002</v>
       </c>
       <c r="K19" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-200.291</v>
       </c>
       <c r="L19" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-187.10299999999995</v>
       </c>
       <c r="M19" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-204.51400000000001</v>
       </c>
       <c r="N19" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-258.46000000000004</v>
       </c>
       <c r="O19" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-240.34100000000004</v>
       </c>
       <c r="P19" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-277.40199999999999</v>
       </c>
       <c r="Q19" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-324.74800000000005</v>
       </c>
       <c r="R19" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>-19.995090000000033</v>
       </c>
       <c r="S19" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>80.761999999999944</v>
       </c>
       <c r="T19" s="2">
         <f>+T17-T18</f>
@@ -2712,7 +3129,7 @@
       </c>
       <c r="U19" s="2">
         <f>+U17-U18</f>
-        <v>0</v>
+        <v>313.15300000000002</v>
       </c>
       <c r="V19" s="2">
         <f>+V17-V18</f>
@@ -2720,14 +3137,38 @@
       </c>
       <c r="W19" s="2">
         <f>+W17-W18</f>
-        <v>0</v>
+        <v>-43.435000000000002</v>
       </c>
       <c r="X19" s="2">
         <f>+X17-X18</f>
         <v>-224.31799999999996</v>
       </c>
-    </row>
-    <row r="20" spans="2:41" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y19" s="2">
+        <f t="shared" ref="Y19:AD19" si="29">+Y17-Y18</f>
+        <v>-79.134999999999962</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="29"/>
+        <v>-111.94200000000001</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" si="29"/>
+        <v>-41.276000000000067</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="29"/>
+        <v>-117.73403124999996</v>
+      </c>
+      <c r="AC19" s="2">
+        <f t="shared" si="29"/>
+        <v>-38.363836249999977</v>
+      </c>
+      <c r="AD19" s="2">
+        <f t="shared" si="29"/>
+        <v>-96.993202500000038</v>
+      </c>
+    </row>
+    <row r="20" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
@@ -2738,56 +3179,80 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15">
-        <f t="shared" ref="I20:T20" si="15">+I19/I21</f>
+        <f t="shared" ref="I20:T20" si="30">+I19/I21</f>
         <v>-2.1837808011311708</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>-2.094535321740028</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>-1.710719166381961</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>-1.5886883130115812</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>-1.7165711216122075</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>-2.1579153899459813</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>-1.9963037718139762</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>-2.2945506881948119</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>-2.6582518867770086</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>-0.16367147978979449</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>-2.2142324260582873</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" ref="X20" si="16">+X19/X21</f>
+        <f t="shared" ref="X20:Y20" si="31">+X19/X21</f>
         <v>-1.7700046554567472</v>
       </c>
-    </row>
-    <row r="21" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y20" s="15">
+        <f t="shared" si="31"/>
+        <v>-0.61540555253130069</v>
+      </c>
+      <c r="Z20" s="1">
+        <f>+Z19/Z21</f>
+        <v>-0.86698782490163884</v>
+      </c>
+      <c r="AA20" s="1">
+        <f>+AA19/AA21</f>
+        <v>-0.31830099632931358</v>
+      </c>
+      <c r="AB20" s="1">
+        <f>+AB19/AB21</f>
+        <v>-0.90790918327215497</v>
+      </c>
+      <c r="AC20" s="1">
+        <f t="shared" ref="AC20:AE20" si="32">+AC19/AC21</f>
+        <v>-0.29584376638699511</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" si="32"/>
+        <v>-0.74796571840587345</v>
+      </c>
+    </row>
+    <row r="21" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
@@ -2834,8 +3299,29 @@
       <c r="X21" s="2">
         <v>126.733</v>
       </c>
-    </row>
-    <row r="23" spans="2:41" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y21" s="2">
+        <v>128.59</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>129.11600000000001</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>129.67599999999999</v>
+      </c>
+      <c r="AB21" s="2">
+        <f>+AA21</f>
+        <v>129.67599999999999</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" ref="AC21:AE21" si="33">+AB21</f>
+        <v>129.67599999999999</v>
+      </c>
+      <c r="AD21" s="2">
+        <f t="shared" si="33"/>
+        <v>129.67599999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:45" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="17" t="s">
         <v>59</v>
       </c>
@@ -2850,15 +3336,15 @@
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20">
-        <f t="shared" ref="M23:O23" si="17">+M9/I9-1</f>
+        <f t="shared" ref="M23:O23" si="34">+M9/I9-1</f>
         <v>0.49089016551055575</v>
       </c>
       <c r="N23" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>0.58065443073574574</v>
       </c>
       <c r="O23" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>0.20101258123739907</v>
       </c>
       <c r="P23" s="20">
@@ -2866,59 +3352,75 @@
         <v>1.9337755550820068E-2</v>
       </c>
       <c r="Q23" s="20">
-        <f t="shared" ref="Q23:Z23" si="18">+Q9/M9-1</f>
+        <f t="shared" ref="Q23:Z23" si="35">+Q9/M9-1</f>
         <v>0.40863280979358652</v>
       </c>
       <c r="R23" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>5.9643761966463593E-3</v>
       </c>
       <c r="S23" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
+        <v>0.49719355337875504</v>
+      </c>
+      <c r="T23" s="20">
+        <f t="shared" si="35"/>
+        <v>0.41783131243939509</v>
+      </c>
+      <c r="U23" s="20">
+        <f t="shared" si="35"/>
+        <v>0.1848123008936613</v>
+      </c>
+      <c r="V23" s="20">
+        <f t="shared" si="35"/>
         <v>-1</v>
       </c>
-      <c r="T23" s="20">
-        <f t="shared" si="18"/>
-        <v>0.41783131243939509</v>
-      </c>
-      <c r="U23" s="20">
-        <f t="shared" si="18"/>
-        <v>0.1848123008936613</v>
-      </c>
-      <c r="V23" s="20">
-        <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="W23" s="20" t="e">
-        <f t="shared" si="18"/>
+      <c r="W23" s="20">
+        <f t="shared" si="35"/>
+        <v>0.54822575088477588</v>
+      </c>
+      <c r="X23" s="20">
+        <f t="shared" si="35"/>
+        <v>0.4192637582587202</v>
+      </c>
+      <c r="Y23" s="20">
+        <f t="shared" si="35"/>
+        <v>0.59959827943529187</v>
+      </c>
+      <c r="Z23" s="20" t="e">
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X23" s="20">
-        <f t="shared" si="18"/>
-        <v>0.4192637582587202</v>
-      </c>
-      <c r="Y23" s="20">
-        <f t="shared" si="18"/>
-        <v>0.34166365961686429</v>
-      </c>
-      <c r="Z23" s="20" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL23" s="26">
-        <f>+AL9/AK9-1</f>
+      <c r="AA23" s="20">
+        <f t="shared" ref="AA23" si="36">+AA9/W9-1</f>
+        <v>0.200913149637997</v>
+      </c>
+      <c r="AB23" s="20">
+        <f t="shared" ref="AB23" si="37">+AB9/X9-1</f>
+        <v>5.0688998134377883E-2</v>
+      </c>
+      <c r="AC23" s="20">
+        <f t="shared" ref="AC23" si="38">+AC9/Y9-1</f>
+        <v>4.93303308518942E-2</v>
+      </c>
+      <c r="AD23" s="20">
+        <f t="shared" ref="AD23" si="39">+AD9/Z9-1</f>
+        <v>-4.7084556689409252E-2</v>
+      </c>
+      <c r="AP23" s="26">
+        <f>+AP9/AO9-1</f>
         <v>4.3424661804126963E-2</v>
       </c>
-      <c r="AM23" s="26">
-        <f>+AM9/AL9-1</f>
+      <c r="AQ23" s="26">
+        <f>+AQ9/AP9-1</f>
         <v>9.161752822616176E-2</v>
       </c>
-      <c r="AN23" s="26">
-        <f>+AN9/AM9-1</f>
+      <c r="AR23" s="26">
+        <f>+AR9/AQ9-1</f>
         <v>8.6471801674493198E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -2927,90 +3429,106 @@
         <v>0.8268058766974169</v>
       </c>
       <c r="J24" s="19">
-        <f t="shared" ref="J24:Z24" si="19">+J11/J9</f>
+        <f t="shared" ref="J24:Z24" si="40">+J11/J9</f>
         <v>0.85923380736356858</v>
       </c>
       <c r="K24" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>0.8250678620907157</v>
       </c>
       <c r="L24" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>0.82428259874043885</v>
       </c>
       <c r="M24" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>0.82592081350295521</v>
       </c>
       <c r="N24" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>0.85431759723054912</v>
       </c>
       <c r="O24" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>0.83294022761055797</v>
       </c>
       <c r="P24" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>0.81848428506614246</v>
       </c>
       <c r="Q24" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>0.86187600735511105</v>
       </c>
       <c r="R24" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>0.83</v>
       </c>
-      <c r="S24" s="19" t="e">
-        <f t="shared" si="19"/>
+      <c r="S24" s="19">
+        <f t="shared" si="40"/>
+        <v>0.82815308966770007</v>
+      </c>
+      <c r="T24" s="19">
+        <f t="shared" si="40"/>
+        <v>0.73217590994936532</v>
+      </c>
+      <c r="U24" s="19">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="V24" s="19" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T24" s="19">
-        <f t="shared" si="19"/>
-        <v>0.73217590994936532</v>
-      </c>
-      <c r="U24" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="19" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W24" s="19" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+      <c r="W24" s="19">
+        <f t="shared" si="40"/>
+        <v>0.86653531121733729</v>
       </c>
       <c r="X24" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>0.8482037860635373</v>
       </c>
       <c r="Y24" s="19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="19" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK24" s="19">
-        <f t="shared" ref="AK24:AN24" si="20">+AK11/AK9</f>
+        <f t="shared" si="40"/>
+        <v>0.828505207428746</v>
+      </c>
+      <c r="Z24" s="19">
+        <f t="shared" si="40"/>
+        <v>0.82700497194343259</v>
+      </c>
+      <c r="AA24" s="19">
+        <f t="shared" ref="AA24:AD24" si="41">+AA11/AA9</f>
+        <v>0.8817773405586784</v>
+      </c>
+      <c r="AB24" s="19">
+        <f t="shared" si="41"/>
+        <v>0.85</v>
+      </c>
+      <c r="AC24" s="19">
+        <f t="shared" si="41"/>
+        <v>0.85</v>
+      </c>
+      <c r="AD24" s="19">
+        <f t="shared" si="41"/>
+        <v>0.85</v>
+      </c>
+      <c r="AO24" s="19">
+        <f t="shared" ref="AO24:AR24" si="42">+AO11/AO9</f>
         <v>0.83671519855370602</v>
       </c>
-      <c r="AL24" s="19">
-        <f t="shared" si="20"/>
+      <c r="AP24" s="19">
+        <f t="shared" si="42"/>
         <v>0.83</v>
       </c>
-      <c r="AM24" s="19">
-        <f t="shared" si="20"/>
+      <c r="AQ24" s="19">
+        <f t="shared" si="42"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="AN24" s="19">
-        <f t="shared" si="20"/>
+      <c r="AR24" s="19">
+        <f t="shared" si="42"/>
         <v>0.83</v>
       </c>
-      <c r="AO24" s="19"/>
+      <c r="AS24" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3029,18 +3547,18 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>62</v>
       </c>
@@ -3048,7 +3566,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -3056,7 +3574,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -3064,7 +3582,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -3072,32 +3590,32 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" s="22" t="s">
         <v>118</v>
       </c>
@@ -3119,18 +3637,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>62</v>
       </c>
@@ -3138,7 +3656,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -3146,7 +3664,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -3154,7 +3672,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -3162,12 +3680,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="22" t="s">
         <v>101</v>
       </c>
@@ -3186,18 +3704,18 @@
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>62</v>
       </c>
@@ -3205,7 +3723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -3213,7 +3731,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -3221,37 +3739,37 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>127</v>
       </c>
@@ -3270,18 +3788,18 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>62</v>
       </c>
@@ -3289,7 +3807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -3297,7 +3815,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -3305,7 +3823,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -3313,7 +3831,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>69</v>
       </c>
@@ -3321,32 +3839,32 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="22" t="s">
         <v>73</v>
       </c>
